--- a/pk_spec.xlsx
+++ b/pk_spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\__transfer\admiral_test\end_to_end_examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\__transfer\admiral_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA87606F-79B4-4BD3-932E-565B47A05BC9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E312720-05A6-4A43-ACED-59A8031866C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="-105" windowWidth="19425" windowHeight="10995" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="-105" windowWidth="19425" windowHeight="10995" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Documents!$A$1:$C$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Methods!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ValueLevel!$A$1:$P$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$1:$P$205</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$1:$P$190</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">WhereClauses!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1366" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="526">
   <si>
     <t>Attribute</t>
   </si>
@@ -1365,18 +1365,6 @@
     <t>Comment for the Record Exclusion</t>
   </si>
   <si>
-    <t>FLGREAS</t>
-  </si>
-  <si>
-    <t>Reason for the Flagged Records</t>
-  </si>
-  <si>
-    <t>FLGREASC</t>
-  </si>
-  <si>
-    <t>Reason for the Flagged Records (C)</t>
-  </si>
-  <si>
     <t>EVID</t>
   </si>
   <si>
@@ -1422,12 +1410,6 @@
     <t>Missing Dependent Variable Result</t>
   </si>
   <si>
-    <t>AULOQ</t>
-  </si>
-  <si>
-    <t>Analysis Upper Limit of Quantitation</t>
-  </si>
-  <si>
     <t>BLQFL</t>
   </si>
   <si>
@@ -1440,18 +1422,6 @@
     <t>Below Lower Limit of Quant Flag (N)</t>
   </si>
   <si>
-    <t>ALQFL</t>
-  </si>
-  <si>
-    <t>Above the Upper Limit of Quant Flag</t>
-  </si>
-  <si>
-    <t>ALQFN</t>
-  </si>
-  <si>
-    <t>Above the Upper Limit of Quant Flag (N)</t>
-  </si>
-  <si>
     <t>AMT</t>
   </si>
   <si>
@@ -1461,24 +1431,6 @@
     <t>Actual Treatment Dose (unit)</t>
   </si>
   <si>
-    <t>DOSETDD</t>
-  </si>
-  <si>
-    <t>Total Daily Amt of Dose Received (unit)</t>
-  </si>
-  <si>
-    <t>DOSEDUR</t>
-  </si>
-  <si>
-    <t>Duration Of Dose Administration (unit)</t>
-  </si>
-  <si>
-    <t>RATE</t>
-  </si>
-  <si>
-    <t>Infusion Rate (unit)</t>
-  </si>
-  <si>
     <t>II</t>
   </si>
   <si>
@@ -1518,18 +1470,6 @@
     <t>Route of Administration (N)</t>
   </si>
   <si>
-    <t>ACYCLE</t>
-  </si>
-  <si>
-    <t>Analysis Cycle</t>
-  </si>
-  <si>
-    <t>ACYCLEC</t>
-  </si>
-  <si>
-    <t>Analysis Cycle (C)</t>
-  </si>
-  <si>
     <t>COHORT</t>
   </si>
   <si>
@@ -1548,12 +1488,6 @@
     <t>Date and Time of the Event</t>
   </si>
   <si>
-    <t>WT</t>
-  </si>
-  <si>
-    <t>Body Weight</t>
-  </si>
-  <si>
     <t>Baseline Body Weight</t>
   </si>
   <si>
@@ -1572,12 +1506,6 @@
     <t>Age at Baseline</t>
   </si>
   <si>
-    <t>AGETPT</t>
-  </si>
-  <si>
-    <t>Age at Analysis Timepoint</t>
-  </si>
-  <si>
     <t>SEXN</t>
   </si>
   <si>
@@ -1590,18 +1518,6 @@
     <t>Race (N)</t>
   </si>
   <si>
-    <t>ARACE</t>
-  </si>
-  <si>
-    <t>Analysis Race</t>
-  </si>
-  <si>
-    <t>ARACEN</t>
-  </si>
-  <si>
-    <t>Analysis Race (N)</t>
-  </si>
-  <si>
     <t>AETHNIC</t>
   </si>
   <si>
@@ -1705,6 +1621,24 @@
   </si>
   <si>
     <t>ARMN</t>
+  </si>
+  <si>
+    <t>XAN</t>
+  </si>
+  <si>
+    <t>DOSE</t>
+  </si>
+  <si>
+    <t>Pharmacokinetic concentration of Xanomeline</t>
+  </si>
+  <si>
+    <t>Xanomeline Patch Dose</t>
+  </si>
+  <si>
+    <t>Volunteer</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -2520,14 +2454,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:R245"/>
+  <dimension ref="A1:R230"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D169" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J175" sqref="J175"/>
+      <selection pane="bottomRight" activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2600,7 +2533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -2623,7 +2556,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -2646,7 +2579,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>3</v>
       </c>
@@ -2669,7 +2602,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>4</v>
       </c>
@@ -2703,7 +2636,7 @@
       <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
     </row>
-    <row r="6" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>5</v>
       </c>
@@ -2726,7 +2659,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>6</v>
       </c>
@@ -2749,7 +2682,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>7</v>
       </c>
@@ -2772,7 +2705,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>8</v>
       </c>
@@ -2795,7 +2728,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>9</v>
       </c>
@@ -2821,7 +2754,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>10</v>
       </c>
@@ -2847,7 +2780,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>11</v>
       </c>
@@ -2870,7 +2803,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>12</v>
       </c>
@@ -2890,7 +2823,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>13</v>
       </c>
@@ -2928,7 +2861,7 @@
       <c r="Q14"/>
       <c r="R14"/>
     </row>
-    <row r="15" spans="1:18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>14</v>
       </c>
@@ -2954,7 +2887,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>15</v>
       </c>
@@ -2980,7 +2913,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>16</v>
       </c>
@@ -3006,7 +2939,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>17</v>
       </c>
@@ -3032,7 +2965,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>18</v>
       </c>
@@ -3068,7 +3001,7 @@
       <c r="Q19"/>
       <c r="R19"/>
     </row>
-    <row r="20" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>19</v>
       </c>
@@ -3104,7 +3037,7 @@
       <c r="Q20"/>
       <c r="R20"/>
     </row>
-    <row r="21" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>20</v>
       </c>
@@ -3140,7 +3073,7 @@
       <c r="Q21"/>
       <c r="R21"/>
     </row>
-    <row r="22" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>21</v>
       </c>
@@ -3163,7 +3096,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>22</v>
       </c>
@@ -3186,7 +3119,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>23</v>
       </c>
@@ -3209,7 +3142,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>24</v>
       </c>
@@ -3232,7 +3165,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>25</v>
       </c>
@@ -3255,7 +3188,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>26</v>
       </c>
@@ -3278,7 +3211,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>27</v>
       </c>
@@ -3301,7 +3234,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>28</v>
       </c>
@@ -3324,7 +3257,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>29</v>
       </c>
@@ -3350,7 +3283,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>30</v>
       </c>
@@ -3376,7 +3309,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>31</v>
       </c>
@@ -3396,7 +3329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>32</v>
       </c>
@@ -3416,7 +3349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>33</v>
       </c>
@@ -3442,7 +3375,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>34</v>
       </c>
@@ -3468,7 +3401,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>35</v>
       </c>
@@ -3491,7 +3424,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="37" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>36</v>
       </c>
@@ -3515,7 +3448,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>37</v>
       </c>
@@ -3538,7 +3471,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="39" spans="1:18" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>38</v>
       </c>
@@ -3558,7 +3491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>39</v>
       </c>
@@ -3581,7 +3514,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>40</v>
       </c>
@@ -3604,7 +3537,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>41</v>
       </c>
@@ -3624,7 +3557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>42</v>
       </c>
@@ -3660,7 +3593,7 @@
       <c r="Q43"/>
       <c r="R43"/>
     </row>
-    <row r="44" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>43</v>
       </c>
@@ -3680,7 +3613,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>44</v>
       </c>
@@ -3700,7 +3633,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>45</v>
       </c>
@@ -3720,7 +3653,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>46</v>
       </c>
@@ -3740,7 +3673,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>47</v>
       </c>
@@ -3763,7 +3696,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>48</v>
       </c>
@@ -3786,7 +3719,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
         <v>49</v>
       </c>
@@ -3812,7 +3745,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <v>50</v>
       </c>
@@ -3835,7 +3768,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
         <v>51</v>
       </c>
@@ -3854,8 +3787,11 @@
       <c r="F52">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J52" s="17" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
         <v>52</v>
       </c>
@@ -3874,8 +3810,11 @@
       <c r="F53" s="17">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J53" s="17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
         <v>53</v>
       </c>
@@ -3895,7 +3834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
         <v>54</v>
       </c>
@@ -3915,7 +3854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
         <v>55</v>
       </c>
@@ -3935,7 +3874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
         <v>56</v>
       </c>
@@ -3955,7 +3894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
         <v>57</v>
       </c>
@@ -3975,7 +3914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17">
         <v>58</v>
       </c>
@@ -3995,7 +3934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="17">
         <v>59</v>
       </c>
@@ -4015,7 +3954,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
         <v>60</v>
       </c>
@@ -4035,7 +3974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17">
         <v>61</v>
       </c>
@@ -4055,7 +3994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="17">
         <v>62</v>
       </c>
@@ -4075,7 +4014,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
         <v>63</v>
       </c>
@@ -4095,7 +4034,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="17">
         <v>64</v>
       </c>
@@ -4118,7 +4057,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="17">
         <v>65</v>
       </c>
@@ -4141,7 +4080,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="17">
         <v>66</v>
       </c>
@@ -4164,7 +4103,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17">
         <v>67</v>
       </c>
@@ -4187,7 +4126,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="17">
         <v>68</v>
       </c>
@@ -4210,7 +4149,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="17">
         <v>69</v>
       </c>
@@ -4233,7 +4172,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="17">
         <v>70</v>
       </c>
@@ -4253,7 +4192,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="17">
         <v>71</v>
       </c>
@@ -4273,7 +4212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17">
         <v>72</v>
       </c>
@@ -4293,7 +4232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
         <v>73</v>
       </c>
@@ -4313,7 +4252,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="17">
         <v>74</v>
       </c>
@@ -4333,7 +4272,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17">
         <v>75</v>
       </c>
@@ -4356,7 +4295,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17">
         <v>76</v>
       </c>
@@ -4379,7 +4318,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="17">
         <v>77</v>
       </c>
@@ -4399,7 +4338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="17">
         <v>78</v>
       </c>
@@ -4422,7 +4361,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="17">
         <v>79</v>
       </c>
@@ -4442,7 +4381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="17">
         <v>80</v>
       </c>
@@ -4462,7 +4401,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="17">
         <v>81</v>
       </c>
@@ -4482,7 +4421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="17">
         <v>82</v>
       </c>
@@ -4502,7 +4441,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="17">
         <v>83</v>
       </c>
@@ -4522,7 +4461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="17">
         <v>84</v>
       </c>
@@ -4542,7 +4481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="17">
         <v>85</v>
       </c>
@@ -4562,7 +4501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="17">
         <v>86</v>
       </c>
@@ -4582,7 +4521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="17">
         <v>87</v>
       </c>
@@ -4602,7 +4541,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="17">
         <v>88</v>
       </c>
@@ -4622,7 +4561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="17">
         <v>89</v>
       </c>
@@ -4642,7 +4581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="17">
         <v>90</v>
       </c>
@@ -4662,7 +4601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="17">
         <v>91</v>
       </c>
@@ -4682,7 +4621,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="17">
         <v>92</v>
       </c>
@@ -4702,7 +4641,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="17">
         <v>93</v>
       </c>
@@ -4722,7 +4661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="17">
         <v>94</v>
       </c>
@@ -4742,7 +4681,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="17">
         <v>95</v>
       </c>
@@ -4762,7 +4701,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="17">
         <v>96</v>
       </c>
@@ -4782,7 +4721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="17">
         <v>97</v>
       </c>
@@ -4802,7 +4741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="17">
         <v>98</v>
       </c>
@@ -4822,7 +4761,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="100" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="17">
         <v>99</v>
       </c>
@@ -4842,7 +4781,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="17">
         <v>100</v>
       </c>
@@ -4862,7 +4801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="17">
         <v>101</v>
       </c>
@@ -4882,7 +4821,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="17">
         <v>102</v>
       </c>
@@ -4902,7 +4841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="17">
         <v>103</v>
       </c>
@@ -4922,7 +4861,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="17">
         <v>104</v>
       </c>
@@ -4942,7 +4881,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="17">
         <v>105</v>
       </c>
@@ -4962,7 +4901,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="17">
         <v>106</v>
       </c>
@@ -4982,7 +4921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="17">
         <v>107</v>
       </c>
@@ -5005,7 +4944,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="17">
         <v>108</v>
       </c>
@@ -5028,7 +4967,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="17">
         <v>109</v>
       </c>
@@ -5051,7 +4990,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="17">
         <v>110</v>
       </c>
@@ -5074,7 +5013,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="17">
         <v>111</v>
       </c>
@@ -5097,7 +5036,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="113" spans="1:16" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="17">
         <v>112</v>
       </c>
@@ -5120,7 +5059,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="114" spans="1:16" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="17">
         <v>113</v>
       </c>
@@ -5140,7 +5079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:16" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="17">
         <v>114</v>
       </c>
@@ -5160,7 +5099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:16" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="17">
         <v>115</v>
       </c>
@@ -5180,7 +5119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:16" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="17">
         <v>116</v>
       </c>
@@ -5200,7 +5139,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="118" spans="1:16" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="17">
         <v>117</v>
       </c>
@@ -5220,7 +5159,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="119" spans="1:16" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="17">
         <v>118</v>
       </c>
@@ -5240,7 +5179,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="120" spans="1:16" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="17">
         <v>119</v>
       </c>
@@ -5260,7 +5199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:16" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="17">
         <v>120</v>
       </c>
@@ -5280,7 +5219,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:16" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="17">
         <v>121</v>
       </c>
@@ -5300,7 +5239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:16" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="17">
         <v>122</v>
       </c>
@@ -5328,10 +5267,10 @@
         <v>190</v>
       </c>
       <c r="C124" t="s">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="D124" t="s">
-        <v>537</v>
+        <v>509</v>
       </c>
       <c r="E124" t="s">
         <v>108</v>
@@ -5357,10 +5296,10 @@
         <v>190</v>
       </c>
       <c r="C125" t="s">
-        <v>536</v>
+        <v>508</v>
       </c>
       <c r="D125" t="s">
-        <v>538</v>
+        <v>510</v>
       </c>
       <c r="E125" t="s">
         <v>405</v>
@@ -5488,7 +5427,9 @@
       </c>
       <c r="H129" s="10"/>
       <c r="I129" s="10"/>
-      <c r="J129" s="10"/>
+      <c r="J129" s="10" t="s">
+        <v>408</v>
+      </c>
       <c r="K129" s="10"/>
       <c r="L129" s="10"/>
       <c r="M129" s="10"/>
@@ -5517,7 +5458,9 @@
       </c>
       <c r="H130" s="10"/>
       <c r="I130" s="10"/>
-      <c r="J130" s="10"/>
+      <c r="J130" s="10" t="s">
+        <v>410</v>
+      </c>
       <c r="K130" s="10"/>
       <c r="L130" s="10"/>
       <c r="M130" s="10"/>
@@ -5771,7 +5714,7 @@
         <v>422</v>
       </c>
       <c r="E139" t="s">
-        <v>405</v>
+        <v>108</v>
       </c>
       <c r="F139">
         <v>8</v>
@@ -5923,7 +5866,9 @@
       </c>
       <c r="H144" s="10"/>
       <c r="I144" s="10"/>
-      <c r="J144" s="10"/>
+      <c r="J144" s="16" t="s">
+        <v>430</v>
+      </c>
       <c r="K144" s="10"/>
       <c r="L144" s="10"/>
       <c r="M144" s="10"/>
@@ -5952,7 +5897,9 @@
       </c>
       <c r="H145" s="10"/>
       <c r="I145" s="10"/>
-      <c r="J145" s="10"/>
+      <c r="J145" s="16" t="s">
+        <v>432</v>
+      </c>
       <c r="K145" s="10"/>
       <c r="L145" s="10"/>
       <c r="M145" s="10"/>
@@ -5962,7 +5909,7 @@
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="17">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B146" s="16" t="s">
         <v>190</v>
@@ -5991,7 +5938,7 @@
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="17">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B147" s="16" t="s">
         <v>190</v>
@@ -6006,7 +5953,7 @@
         <v>108</v>
       </c>
       <c r="F147">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="H147" s="10"/>
       <c r="I147" s="10"/>
@@ -6020,7 +5967,7 @@
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="17">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B148" s="16" t="s">
         <v>190</v>
@@ -6039,7 +5986,9 @@
       </c>
       <c r="H148" s="10"/>
       <c r="I148" s="10"/>
-      <c r="J148" s="10"/>
+      <c r="J148" s="10" t="s">
+        <v>438</v>
+      </c>
       <c r="K148" s="10"/>
       <c r="L148" s="10"/>
       <c r="M148" s="10"/>
@@ -6049,7 +5998,7 @@
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="17">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B149" s="16" t="s">
         <v>190</v>
@@ -6061,10 +6010,10 @@
         <v>441</v>
       </c>
       <c r="E149" t="s">
-        <v>108</v>
+        <v>405</v>
       </c>
       <c r="F149">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="H149" s="10"/>
       <c r="I149" s="10"/>
@@ -6078,7 +6027,7 @@
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="17">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B150" s="16" t="s">
         <v>190</v>
@@ -6107,16 +6056,16 @@
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="17">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B151" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C151" t="s">
-        <v>444</v>
+        <v>312</v>
       </c>
       <c r="D151" t="s">
-        <v>445</v>
+        <v>313</v>
       </c>
       <c r="E151" t="s">
         <v>405</v>
@@ -6136,22 +6085,22 @@
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="17">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B152" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C152" t="s">
-        <v>446</v>
+        <v>314</v>
       </c>
       <c r="D152" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E152" t="s">
-        <v>405</v>
+        <v>108</v>
       </c>
       <c r="F152">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H152" s="10"/>
       <c r="I152" s="10"/>
@@ -6165,22 +6114,22 @@
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="17">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B153" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C153" t="s">
-        <v>312</v>
+        <v>445</v>
       </c>
       <c r="D153" t="s">
-        <v>313</v>
+        <v>446</v>
       </c>
       <c r="E153" t="s">
-        <v>405</v>
+        <v>108</v>
       </c>
       <c r="F153">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="H153" s="10"/>
       <c r="I153" s="10"/>
@@ -6194,22 +6143,22 @@
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="17">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B154" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C154" t="s">
-        <v>314</v>
+        <v>447</v>
       </c>
       <c r="D154" t="s">
         <v>448</v>
       </c>
       <c r="E154" t="s">
-        <v>108</v>
+        <v>405</v>
       </c>
       <c r="F154">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H154" s="10"/>
       <c r="I154" s="10"/>
@@ -6223,7 +6172,7 @@
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="17">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B155" s="16" t="s">
         <v>190</v>
@@ -6238,21 +6187,12 @@
         <v>108</v>
       </c>
       <c r="F155">
-        <v>200</v>
-      </c>
-      <c r="H155" s="10"/>
-      <c r="I155" s="10"/>
-      <c r="J155" s="10"/>
-      <c r="K155" s="10"/>
-      <c r="L155" s="10"/>
-      <c r="M155" s="10"/>
-      <c r="N155" s="10"/>
-      <c r="O155" s="10"/>
-      <c r="P155" s="10"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="17">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B156" s="16" t="s">
         <v>190</v>
@@ -6269,19 +6209,10 @@
       <c r="F156">
         <v>8</v>
       </c>
-      <c r="H156" s="10"/>
-      <c r="I156" s="10"/>
-      <c r="J156" s="10"/>
-      <c r="K156" s="10"/>
-      <c r="L156" s="10"/>
-      <c r="M156" s="10"/>
-      <c r="N156" s="10"/>
-      <c r="O156" s="10"/>
-      <c r="P156" s="10"/>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="17">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B157" s="16" t="s">
         <v>190</v>
@@ -6298,28 +6229,19 @@
       <c r="F157">
         <v>8</v>
       </c>
-      <c r="H157" s="10"/>
-      <c r="I157" s="10"/>
-      <c r="J157" s="10"/>
-      <c r="K157" s="10"/>
-      <c r="L157" s="10"/>
-      <c r="M157" s="10"/>
-      <c r="N157" s="10"/>
-      <c r="O157" s="10"/>
-      <c r="P157" s="10"/>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="17">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B158" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C158" t="s">
-        <v>358</v>
+        <v>272</v>
       </c>
       <c r="D158" t="s">
-        <v>359</v>
+        <v>455</v>
       </c>
       <c r="E158" t="s">
         <v>405</v>
@@ -6327,48 +6249,39 @@
       <c r="F158">
         <v>8</v>
       </c>
-      <c r="H158" s="10"/>
-      <c r="I158" s="10"/>
-      <c r="J158" s="10"/>
-      <c r="K158" s="10"/>
-      <c r="L158" s="10"/>
-      <c r="M158" s="10"/>
-      <c r="N158" s="10"/>
-      <c r="O158" s="10"/>
-      <c r="P158" s="10"/>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="17">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B159" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C159" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D159" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E159" t="s">
-        <v>108</v>
+        <v>405</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="17">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B160" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C160" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D160" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E160" t="s">
         <v>405</v>
@@ -6379,56 +6292,56 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="17">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B161" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C161" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D161" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E161" t="s">
-        <v>108</v>
+        <v>405</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="17">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B162" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C162" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D162" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E162" t="s">
-        <v>405</v>
+        <v>108</v>
       </c>
       <c r="F162">
-        <v>8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="17">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B163" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C163" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D163" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E163" t="s">
         <v>405</v>
@@ -6436,39 +6349,42 @@
       <c r="F163">
         <v>8</v>
       </c>
+      <c r="J163" s="15" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="17">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B164" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C164" t="s">
-        <v>272</v>
+        <v>466</v>
       </c>
       <c r="D164" t="s">
-        <v>465</v>
+        <v>86</v>
       </c>
       <c r="E164" t="s">
-        <v>405</v>
+        <v>108</v>
       </c>
       <c r="F164">
-        <v>8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="17">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B165" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C165" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D165" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E165" t="s">
         <v>405</v>
@@ -6476,19 +6392,22 @@
       <c r="F165">
         <v>8</v>
       </c>
+      <c r="J165" s="15" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="17">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B166" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C166" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D166" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E166" t="s">
         <v>405</v>
@@ -6496,56 +6415,62 @@
       <c r="F166">
         <v>8</v>
       </c>
+      <c r="J166" s="15" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="17">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B167" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C167" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D167" t="s">
+        <v>472</v>
+      </c>
+      <c r="E167" t="s">
+        <v>108</v>
+      </c>
+      <c r="F167">
+        <v>40</v>
+      </c>
+      <c r="J167" s="15" t="s">
         <v>471</v>
-      </c>
-      <c r="E167" t="s">
-        <v>405</v>
-      </c>
-      <c r="F167">
-        <v>8</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="17">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B168" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C168" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D168" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E168" t="s">
-        <v>405</v>
+        <v>108</v>
       </c>
       <c r="F168">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="17">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B169" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C169" t="s">
-        <v>474</v>
+        <v>372</v>
       </c>
       <c r="D169" t="s">
         <v>475</v>
@@ -6559,16 +6484,16 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="17">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B170" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C170" t="s">
+        <v>374</v>
+      </c>
+      <c r="D170" t="s">
         <v>476</v>
-      </c>
-      <c r="D170" t="s">
-        <v>477</v>
       </c>
       <c r="E170" t="s">
         <v>405</v>
@@ -6579,36 +6504,36 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="17">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B171" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C171" t="s">
-        <v>478</v>
+        <v>376</v>
       </c>
       <c r="D171" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E171" t="s">
-        <v>108</v>
+        <v>405</v>
       </c>
       <c r="F171">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="17">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B172" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C172" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D172" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E172" t="s">
         <v>405</v>
@@ -6616,65 +6541,62 @@
       <c r="F172">
         <v>8</v>
       </c>
-      <c r="J172" s="15" t="s">
-        <v>480</v>
-      </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="17">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B173" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C173" t="s">
-        <v>482</v>
+        <v>65</v>
       </c>
       <c r="D173" t="s">
-        <v>86</v>
+        <v>480</v>
       </c>
       <c r="E173" t="s">
-        <v>108</v>
+        <v>405</v>
       </c>
       <c r="F173">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="17">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B174" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C174" t="s">
-        <v>483</v>
+        <v>67</v>
       </c>
       <c r="D174" t="s">
-        <v>484</v>
+        <v>100</v>
       </c>
       <c r="E174" t="s">
-        <v>405</v>
+        <v>108</v>
       </c>
       <c r="F174">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J174" s="15" t="s">
-        <v>483</v>
+        <v>67</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="17">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B175" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C175" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D175" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E175" t="s">
         <v>405</v>
@@ -6682,39 +6604,45 @@
       <c r="F175">
         <v>8</v>
       </c>
+      <c r="J175" s="15" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="17">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B176" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C176" t="s">
-        <v>487</v>
+        <v>68</v>
       </c>
       <c r="D176" t="s">
-        <v>488</v>
+        <v>101</v>
       </c>
       <c r="E176" t="s">
         <v>108</v>
       </c>
       <c r="F176">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="J176" s="15" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="17">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B177" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C177" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D177" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="E177" t="s">
         <v>405</v>
@@ -6723,84 +6651,87 @@
         <v>8</v>
       </c>
       <c r="J177" s="15" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="17">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B178" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C178" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D178" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E178" t="s">
         <v>108</v>
       </c>
       <c r="F178">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="J178" s="15" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="17">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B179" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C179" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D179" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="E179" t="s">
-        <v>108</v>
+        <v>405</v>
       </c>
       <c r="F179">
-        <v>19</v>
+        <v>8</v>
+      </c>
+      <c r="J179" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="17">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B180" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C180" t="s">
-        <v>495</v>
+        <v>228</v>
       </c>
       <c r="D180" t="s">
-        <v>496</v>
+        <v>229</v>
       </c>
       <c r="E180" t="s">
-        <v>405</v>
+        <v>108</v>
       </c>
       <c r="F180">
-        <v>8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="17">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B181" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C181" t="s">
-        <v>372</v>
+        <v>489</v>
       </c>
       <c r="D181" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="E181" t="s">
         <v>405</v>
@@ -6811,56 +6742,62 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="17">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B182" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C182" t="s">
-        <v>374</v>
+        <v>74</v>
       </c>
       <c r="D182" t="s">
-        <v>498</v>
+        <v>106</v>
       </c>
       <c r="E182" t="s">
-        <v>405</v>
+        <v>108</v>
       </c>
       <c r="F182">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="J182" s="15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="17">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B183" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C183" t="s">
-        <v>376</v>
+        <v>491</v>
       </c>
       <c r="D183" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="E183" t="s">
-        <v>405</v>
+        <v>108</v>
       </c>
       <c r="F183">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="J183" s="15" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="17">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B184" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C184" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="D184" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="E184" t="s">
         <v>405</v>
@@ -6868,19 +6805,22 @@
       <c r="F184">
         <v>8</v>
       </c>
+      <c r="J184" s="15" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="17">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B185" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C185" t="s">
-        <v>65</v>
+        <v>495</v>
       </c>
       <c r="D185" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="E185" t="s">
         <v>405</v>
@@ -6891,16 +6831,16 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="17">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B186" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C186" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D186" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="E186" t="s">
         <v>405</v>
@@ -6911,39 +6851,36 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="17">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B187" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C187" t="s">
-        <v>67</v>
+        <v>499</v>
       </c>
       <c r="D187" t="s">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E187" t="s">
-        <v>108</v>
+        <v>405</v>
       </c>
       <c r="F187">
-        <v>1</v>
-      </c>
-      <c r="J187" s="15" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="17">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B188" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D188" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E188" t="s">
         <v>405</v>
@@ -6951,45 +6888,39 @@
       <c r="F188">
         <v>8</v>
       </c>
-      <c r="J188" s="15" t="s">
-        <v>505</v>
-      </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="17">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B189" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>68</v>
+        <v>503</v>
       </c>
       <c r="D189" t="s">
-        <v>101</v>
+        <v>504</v>
       </c>
       <c r="E189" t="s">
-        <v>108</v>
+        <v>405</v>
       </c>
       <c r="F189">
-        <v>60</v>
-      </c>
-      <c r="J189" s="15" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="17">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B190" s="16" t="s">
         <v>190</v>
       </c>
       <c r="C190" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D190" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E190" t="s">
         <v>405</v>
@@ -6997,332 +6928,59 @@
       <c r="F190">
         <v>8</v>
       </c>
-      <c r="J190" s="15" t="s">
-        <v>507</v>
-      </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A191" s="17">
-        <v>68</v>
-      </c>
-      <c r="B191" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="C191" t="s">
-        <v>509</v>
-      </c>
-      <c r="D191" t="s">
-        <v>510</v>
-      </c>
-      <c r="E191" t="s">
-        <v>108</v>
-      </c>
-      <c r="F191">
-        <v>60</v>
-      </c>
+      <c r="A191" s="17"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A192" s="17">
-        <v>69</v>
-      </c>
-      <c r="B192" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="C192" t="s">
-        <v>511</v>
-      </c>
-      <c r="D192" t="s">
-        <v>512</v>
-      </c>
-      <c r="E192" t="s">
-        <v>405</v>
-      </c>
-      <c r="F192">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A193" s="17">
-        <v>70</v>
-      </c>
-      <c r="B193" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="C193" t="s">
-        <v>513</v>
-      </c>
-      <c r="D193" t="s">
-        <v>514</v>
-      </c>
-      <c r="E193" t="s">
-        <v>108</v>
-      </c>
-      <c r="F193">
-        <v>100</v>
-      </c>
-      <c r="J193" s="15" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A194" s="17">
-        <v>71</v>
-      </c>
-      <c r="B194" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="C194" t="s">
-        <v>515</v>
-      </c>
-      <c r="D194" t="s">
-        <v>516</v>
-      </c>
-      <c r="E194" t="s">
-        <v>405</v>
-      </c>
-      <c r="F194">
-        <v>8</v>
-      </c>
-      <c r="J194" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A195" s="17">
-        <v>72</v>
-      </c>
-      <c r="B195" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="C195" t="s">
-        <v>228</v>
-      </c>
-      <c r="D195" t="s">
-        <v>229</v>
-      </c>
-      <c r="E195" t="s">
-        <v>108</v>
-      </c>
-      <c r="F195">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A196" s="17">
-        <v>73</v>
-      </c>
-      <c r="B196" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="C196" t="s">
-        <v>517</v>
-      </c>
-      <c r="D196" t="s">
-        <v>518</v>
-      </c>
-      <c r="E196" t="s">
-        <v>405</v>
-      </c>
-      <c r="F196">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A197" s="17">
-        <v>74</v>
-      </c>
-      <c r="B197" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="C197" t="s">
-        <v>74</v>
-      </c>
-      <c r="D197" t="s">
-        <v>106</v>
-      </c>
-      <c r="E197" t="s">
-        <v>108</v>
-      </c>
-      <c r="F197">
-        <v>3</v>
-      </c>
-      <c r="J197" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A198" s="17">
-        <v>75</v>
-      </c>
-      <c r="B198" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="C198" t="s">
-        <v>519</v>
-      </c>
-      <c r="D198" t="s">
-        <v>520</v>
-      </c>
-      <c r="E198" t="s">
-        <v>108</v>
-      </c>
-      <c r="F198">
-        <v>100</v>
-      </c>
-      <c r="J198" s="15" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A199" s="17">
-        <v>76</v>
-      </c>
-      <c r="B199" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="C199" t="s">
-        <v>521</v>
-      </c>
-      <c r="D199" t="s">
-        <v>522</v>
-      </c>
-      <c r="E199" t="s">
-        <v>405</v>
-      </c>
-      <c r="F199">
-        <v>8</v>
-      </c>
-      <c r="J199" s="15" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A200" s="17">
-        <v>77</v>
-      </c>
-      <c r="B200" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="C200" t="s">
-        <v>523</v>
-      </c>
-      <c r="D200" t="s">
-        <v>524</v>
-      </c>
-      <c r="E200" t="s">
-        <v>405</v>
-      </c>
-      <c r="F200">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A201" s="17">
-        <v>78</v>
-      </c>
-      <c r="B201" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="C201" t="s">
-        <v>525</v>
-      </c>
-      <c r="D201" t="s">
-        <v>526</v>
-      </c>
-      <c r="E201" t="s">
-        <v>405</v>
-      </c>
-      <c r="F201">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A202" s="17">
-        <v>79</v>
-      </c>
-      <c r="B202" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="C202" t="s">
-        <v>527</v>
-      </c>
-      <c r="D202" t="s">
-        <v>528</v>
-      </c>
-      <c r="E202" t="s">
-        <v>405</v>
-      </c>
-      <c r="F202">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A203" s="17">
-        <v>80</v>
-      </c>
-      <c r="B203" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="C203" t="s">
-        <v>529</v>
-      </c>
-      <c r="D203" t="s">
-        <v>530</v>
-      </c>
-      <c r="E203" t="s">
-        <v>405</v>
-      </c>
-      <c r="F203">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A204" s="17">
-        <v>81</v>
-      </c>
-      <c r="B204" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="C204" t="s">
-        <v>531</v>
-      </c>
-      <c r="D204" t="s">
-        <v>532</v>
-      </c>
-      <c r="E204" t="s">
-        <v>405</v>
-      </c>
-      <c r="F204">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A205" s="17">
-        <v>82</v>
-      </c>
-      <c r="B205" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="C205" t="s">
-        <v>533</v>
-      </c>
-      <c r="D205" t="s">
-        <v>534</v>
-      </c>
-      <c r="E205" t="s">
-        <v>405</v>
-      </c>
-      <c r="F205">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" s="17"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="17"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="17"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="17"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="17"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="17"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="17"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="17"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="17"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="17"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="17"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="17"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="17"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="17"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="17"/>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="17"/>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="17"/>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
@@ -7391,59 +7049,8 @@
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="17"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="17"/>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="17"/>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="17"/>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="17"/>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="17"/>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="17"/>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="17"/>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="17"/>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="17"/>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="17"/>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="17"/>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="17"/>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="17"/>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="17"/>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="17"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:P205" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="ADPPK"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:P190" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7575,13 +7182,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K65" sqref="K65"/>
+      <selection pane="bottomRight" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7741,10 +7348,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="23" t="s">
@@ -7754,7 +7361,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>541</v>
+        <v>513</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="5" t="s">
@@ -7763,10 +7370,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="23" t="s">
@@ -7776,7 +7383,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>543</v>
+        <v>515</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="5" t="s">
@@ -7785,10 +7392,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="23" t="s">
@@ -7798,7 +7405,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="5" t="s">
@@ -7807,10 +7414,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="23" t="s">
@@ -7820,7 +7427,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>539</v>
+        <v>511</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
@@ -7917,10 +7524,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="5" t="s">
@@ -7930,7 +7537,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>541</v>
+        <v>513</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="5" t="s">
@@ -7941,10 +7548,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="5" t="s">
@@ -7954,7 +7561,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>543</v>
+        <v>515</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="5" t="s">
@@ -7965,10 +7572,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="5" t="s">
@@ -7978,7 +7585,7 @@
         <v>3</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="5" t="s">
@@ -7989,10 +7596,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="5" t="s">
@@ -8002,7 +7609,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>539</v>
+        <v>511</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="5" t="s">
@@ -8013,10 +7620,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="5" t="s">
@@ -8037,10 +7644,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="5" t="s">
@@ -8061,10 +7668,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="5" t="s">
@@ -8085,10 +7692,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="5" t="s">
@@ -8131,10 +7738,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>519</v>
+        <v>491</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>519</v>
+        <v>491</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
@@ -8144,7 +7751,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>542</v>
+        <v>514</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5" t="s">
@@ -8153,10 +7760,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>521</v>
+        <v>493</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
@@ -8166,7 +7773,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="23" t="s">
@@ -8241,10 +7848,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>118</v>
@@ -8267,10 +7874,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>513</v>
+        <v>485</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>118</v>
@@ -8293,10 +7900,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="23" t="s">
@@ -8306,7 +7913,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>543</v>
+        <v>515</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="5" t="s">
@@ -8315,10 +7922,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="23" t="s">
@@ -8328,7 +7935,7 @@
         <v>2</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="5" t="s">
@@ -8689,10 +8296,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>122</v>
@@ -8704,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="20" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
       <c r="G47" s="15" t="s">
         <v>169</v>
@@ -8715,10 +8322,10 @@
     </row>
     <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>122</v>
@@ -8730,7 +8337,7 @@
         <v>2</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>539</v>
+        <v>511</v>
       </c>
       <c r="G48" s="15" t="s">
         <v>170</v>
@@ -8741,10 +8348,10 @@
     </row>
     <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>122</v>
@@ -8756,7 +8363,7 @@
         <v>3</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="G49" s="15" t="s">
         <v>171</v>
@@ -8767,10 +8374,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>122</v>
@@ -8782,7 +8389,7 @@
         <v>4</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>545</v>
+        <v>517</v>
       </c>
       <c r="G50" s="15" t="s">
         <v>172</v>
@@ -8871,10 +8478,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>405</v>
@@ -8883,7 +8490,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>539</v>
+        <v>511</v>
       </c>
       <c r="H54" s="15" t="s">
         <v>154</v>
@@ -8891,10 +8498,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>405</v>
@@ -8903,7 +8510,7 @@
         <v>2</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
       <c r="H55" s="15" t="s">
         <v>155</v>
@@ -8911,10 +8518,10 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>405</v>
@@ -8923,7 +8530,7 @@
         <v>3</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>541</v>
+        <v>513</v>
       </c>
       <c r="H56" s="15" t="s">
         <v>156</v>
@@ -9022,18 +8629,18 @@
         <v>1</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>546</v>
+        <v>518</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>405</v>
@@ -9042,7 +8649,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="H61" s="15" t="s">
         <v>135</v>
@@ -9050,10 +8657,10 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>405</v>
@@ -9062,13 +8669,193 @@
         <v>1</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="G62" s="15" t="s">
         <v>165</v>
       </c>
       <c r="H62" s="15" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E63" s="14">
+        <v>1</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" s="14">
+        <v>2</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="E65" s="14">
+        <v>1</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="E66" s="14">
+        <v>2</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="E67" s="14">
+        <v>1</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="E68" s="14">
+        <v>1</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E69" s="14">
+        <v>1</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70" s="14">
+        <v>1</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="E71" s="14">
+        <v>1</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -9195,7 +8982,7 @@
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD9"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
